--- a/1_Regression/HousesPrices.xlsx
+++ b/1_Regression/HousesPrices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/Multivariate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91526994-703A-EA44-977B-1A31D0DCEB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0632C-A756-5440-96C4-6A81B4B95BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>area</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>price</t>
-  </si>
-  <si>
-    <t>bathrooms</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
   </si>
 </sst>
 </file>
@@ -881,15 +872,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,13 +891,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2600</v>
       </c>
@@ -916,14 +904,11 @@
       <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>550000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3000</v>
       </c>
@@ -933,25 +918,25 @@
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>565000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3200</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
       <c r="C4">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>610000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3600</v>
       </c>
@@ -961,14 +946,11 @@
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>595000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -978,10 +960,7 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="D6">
         <v>760000</v>
       </c>
     </row>

--- a/1_Regression/HousesPrices.xlsx
+++ b/1_Regression/HousesPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0632C-A756-5440-96C4-6A81B4B95BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380B424-09F9-4E43-BF7B-C8B4F1999D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,9 +926,6 @@
       <c r="A4">
         <v>3200</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
       <c r="C4">
         <v>18</v>
       </c>

--- a/1_Regression/HousesPrices.xlsx
+++ b/1_Regression/HousesPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380B424-09F9-4E43-BF7B-C8B4F1999D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F454B83-3691-9F41-859C-6104B76A13C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +952,7 @@
         <v>4000</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>8</v>

--- a/1_Regression/HousesPrices.xlsx
+++ b/1_Regression/HousesPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjubran/Downloads/MachineLearning/1_Regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F454B83-3691-9F41-859C-6104B76A13C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDBE4E-B627-3542-83C1-0000285A887A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -875,7 +875,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="D2">
-        <v>550000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>565000</v>
+        <v>575000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>610000</v>
+        <v>625000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
